--- a/売上管理システム　データベース関連項目.xlsx
+++ b/売上管理システム　データベース関連項目.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\239002\Desktop\Webアプリ開発\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\239007\Desktop\UG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCF91C62-F0E8-4798-988B-97D608578896}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D03BA67-7699-475F-9EC4-58671E3F6BE8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6380" xr2:uid="{2C264ECD-E77D-4382-B42E-E39482EDDCAD}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6380" firstSheet="1" activeTab="5" xr2:uid="{2C264ECD-E77D-4382-B42E-E39482EDDCAD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="45">
   <si>
     <t>売上管理</t>
   </si>
@@ -295,13 +295,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>売上ID</t>
-    <rPh sb="0" eb="2">
-      <t>ウリアゲ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>月間ID</t>
     <rPh sb="0" eb="2">
       <t>ゲッカン</t>
@@ -333,6 +326,10 @@
     <rPh sb="0" eb="1">
       <t>ツキ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>月間総売上id</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2031,7 +2028,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>88900</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>12700</xdr:rowOff>
@@ -2386,7 +2383,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC7A1F48-DE31-490C-B3F6-69CFB78C6BF1}">
   <dimension ref="B2:P20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="K3" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="AA8" sqref="AA8"/>
     </sheetView>
   </sheetViews>
@@ -2793,303 +2790,264 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F332E367-3DE0-475E-B351-514B7085B555}">
-  <dimension ref="A1:D49"/>
+  <dimension ref="A1:C49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="1">
+        <v>45474</v>
+      </c>
+      <c r="B2">
+        <v>10000</v>
+      </c>
+      <c r="C2">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="1">
+        <v>45474</v>
+      </c>
+      <c r="B3">
+        <v>10000</v>
+      </c>
+      <c r="C3">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="1">
+        <v>45474</v>
+      </c>
+      <c r="B4">
+        <v>10000</v>
+      </c>
+      <c r="C4">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="1">
+        <v>45474</v>
+      </c>
+      <c r="B5">
+        <v>10000</v>
+      </c>
+      <c r="C5">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="1">
+        <v>45475</v>
+      </c>
+      <c r="B6">
+        <v>10000</v>
+      </c>
+      <c r="C6">
         <v>1</v>
       </c>
-      <c r="B2" s="1">
-        <v>45474</v>
-      </c>
-      <c r="C2">
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="1">
+        <v>45475</v>
+      </c>
+      <c r="B7">
         <v>10000</v>
       </c>
-      <c r="D2">
+      <c r="C7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="1">
+        <v>45475</v>
+      </c>
+      <c r="B8">
+        <v>10000</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="1">
+        <v>45475</v>
+      </c>
+      <c r="B9">
+        <v>10000</v>
+      </c>
+      <c r="C9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="1">
+        <v>45476</v>
+      </c>
+      <c r="B10">
+        <v>10000</v>
+      </c>
+      <c r="C10">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="1">
+        <v>45476</v>
+      </c>
+      <c r="B11">
+        <v>10000</v>
+      </c>
+      <c r="C11">
         <v>2</v>
       </c>
-      <c r="B3" s="1">
-        <v>45474</v>
-      </c>
-      <c r="C3">
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="1">
+        <v>45476</v>
+      </c>
+      <c r="B12">
         <v>10000</v>
       </c>
-      <c r="D3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4">
+      <c r="C12">
         <v>3</v>
       </c>
-      <c r="B4" s="1">
-        <v>45474</v>
-      </c>
-      <c r="C4">
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="1">
+        <v>45476</v>
+      </c>
+      <c r="B13">
         <v>10000</v>
       </c>
-      <c r="D4">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5">
+      <c r="C13">
         <v>4</v>
       </c>
-      <c r="B5" s="1">
-        <v>45474</v>
-      </c>
-      <c r="C5">
-        <v>10000</v>
-      </c>
-      <c r="D5">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1">
-        <v>45475</v>
-      </c>
-      <c r="C6">
-        <v>10000</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1">
-        <v>45475</v>
-      </c>
-      <c r="C7">
-        <v>10000</v>
-      </c>
-      <c r="D7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1">
-        <v>45475</v>
-      </c>
-      <c r="C8">
-        <v>10000</v>
-      </c>
-      <c r="D8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1">
-        <v>45475</v>
-      </c>
-      <c r="C9">
-        <v>10000</v>
-      </c>
-      <c r="D9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1">
-        <v>45476</v>
-      </c>
-      <c r="C10">
-        <v>10000</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1">
-        <v>45476</v>
-      </c>
-      <c r="C11">
-        <v>10000</v>
-      </c>
-      <c r="D11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" s="1">
-        <v>45476</v>
-      </c>
-      <c r="C12">
-        <v>10000</v>
-      </c>
-      <c r="D12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" s="1">
-        <v>45476</v>
-      </c>
-      <c r="C13">
-        <v>10000</v>
-      </c>
-      <c r="D13">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B14" s="1"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B15" s="1"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="B16" s="1"/>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B17" s="1"/>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B18" s="1"/>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B19" s="1"/>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B20" s="1"/>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B21" s="1"/>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B22" s="1"/>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B23" s="1"/>
-    </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B24" s="1"/>
-    </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B25" s="1"/>
-    </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B26" s="1"/>
-    </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B27" s="1"/>
-    </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B28" s="1"/>
-    </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B29" s="1"/>
-    </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B30" s="1"/>
-    </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B31" s="1"/>
-    </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B32" s="1"/>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B33" s="1"/>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B34" s="1"/>
-    </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B35" s="1"/>
-    </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B36" s="1"/>
-    </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B37" s="1"/>
-    </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B38" s="1"/>
-    </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B39" s="1"/>
-    </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B40" s="1"/>
-    </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B41" s="1"/>
-    </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B42" s="1"/>
-    </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B43" s="1"/>
-    </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B44" s="1"/>
-    </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B45" s="1"/>
-    </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B46" s="1"/>
-    </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B47" s="1"/>
-    </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B48" s="1"/>
-    </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="B49" s="1"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="1"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="1"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="1"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="1"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="1"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="1"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="1"/>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="1"/>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="1"/>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="1"/>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="1"/>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="1"/>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="1"/>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="1"/>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="1"/>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="1"/>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="1"/>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" s="1"/>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="1"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" s="1"/>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" s="1"/>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" s="1"/>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" s="1"/>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" s="1"/>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38" s="1"/>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39" s="1"/>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40" s="1"/>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41" s="1"/>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A42" s="1"/>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A43" s="1"/>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A44" s="1"/>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A45" s="1"/>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A46" s="1"/>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A47" s="1"/>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A48" s="1"/>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A49" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -3208,7 +3166,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -3278,24 +3236,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{364FD145-442C-449D-8ADC-875BBC131831}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" t="s">
         <v>40</v>
-      </c>
-      <c r="B1" t="s">
-        <v>41</v>
       </c>
       <c r="C1" t="s">
         <v>18</v>
       </c>
       <c r="D1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -3309,7 +3267,7 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>10000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -3323,7 +3281,7 @@
         <v>2</v>
       </c>
       <c r="D3">
-        <v>10000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -3337,7 +3295,7 @@
         <v>3</v>
       </c>
       <c r="D4">
-        <v>10000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -3351,7 +3309,7 @@
         <v>4</v>
       </c>
       <c r="D5">
-        <v>10000</v>
+        <v>30000</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -3359,13 +3317,10 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6">
         <v>1</v>
-      </c>
-      <c r="D6">
-        <v>20000</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -3373,13 +3328,10 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7">
         <v>2</v>
-      </c>
-      <c r="D7">
-        <v>20000</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -3387,13 +3339,10 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8">
         <v>3</v>
-      </c>
-      <c r="D8">
-        <v>20000</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -3401,13 +3350,10 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9">
         <v>4</v>
-      </c>
-      <c r="D9">
-        <v>20000</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -3415,13 +3361,10 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C10">
         <v>1</v>
-      </c>
-      <c r="D10">
-        <v>30000</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -3429,13 +3372,10 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C11">
         <v>2</v>
-      </c>
-      <c r="D11">
-        <v>30000</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -3443,13 +3383,10 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C12">
         <v>3</v>
-      </c>
-      <c r="D12">
-        <v>30000</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -3457,13 +3394,10 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C13">
         <v>4</v>
-      </c>
-      <c r="D13">
-        <v>30000</v>
       </c>
     </row>
   </sheetData>
@@ -3485,10 +3419,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" t="s">
         <v>43</v>
-      </c>
-      <c r="B1" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">

--- a/売上管理システム　データベース関連項目.xlsx
+++ b/売上管理システム　データベース関連項目.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\239007\Desktop\UG\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\239002\Desktop\UG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D03BA67-7699-475F-9EC4-58671E3F6BE8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A006910-5CCC-453E-A41E-342A2FC28FBF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6380" firstSheet="1" activeTab="5" xr2:uid="{2C264ECD-E77D-4382-B42E-E39482EDDCAD}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6380" xr2:uid="{2C264ECD-E77D-4382-B42E-E39482EDDCAD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -542,56 +542,6 @@
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="sng" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-              <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>売上</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="sng" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-              <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>ID(</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="sng" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-              <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>主</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="sng" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-              <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>)</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-            <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
           <a:pPr marL="0" marR="0" indent="0" algn="l">
             <a:lnSpc>
               <a:spcPct val="100000"/>
@@ -1083,38 +1033,25 @@
               <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
               <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>売上</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="sng" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-              <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>ID(</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="sng" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-              <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>外</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="sng" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-              <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>)</a:t>
-          </a:r>
+            <a:t>月間総売上</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="sng" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>ID</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" u="sng" strike="noStrike">
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
         </a:p>
         <a:p>
           <a:pPr marL="0" indent="0" algn="l"/>
@@ -1808,71 +1745,6 @@
         <a:xfrm flipH="1">
           <a:off x="15030450" y="3552825"/>
           <a:ext cx="876300" cy="4763"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>109538</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>119063</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="6" name="直線コネクタ 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E152B01B-E99C-F851-9550-43444FB7A3F5}"/>
-            </a:ext>
-            <a:ext uri="{147F2762-F138-4A5C-976F-8EAC2B608ADB}">
-              <a16:predDERef xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" pred="{7C65D239-95CA-5973-6B21-3BC733F8E0C8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr>
-          <a:cxnSpLocks/>
-          <a:stCxn id="8" idx="3"/>
-          <a:endCxn id="11" idx="1"/>
-          <a:extLst>
-            <a:ext uri="{5F17804C-33F3-41E3-A699-7DCFA2EF7971}">
-              <a16:cxnDERefs xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" st="{B5A83E6C-D527-342A-3F73-EE6F91196AEF}" end="{CA6A3743-2E66-DE77-42A6-A7AFF11FD4F1}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvCxnSpPr>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="12515850" y="1262063"/>
-          <a:ext cx="1123950" cy="9525"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -2383,8 +2255,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC7A1F48-DE31-490C-B3F6-69CFB78C6BF1}">
   <dimension ref="B2:P20"/>
   <sheetViews>
-    <sheetView topLeftCell="K3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AA8" sqref="AA8"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="W4" sqref="W4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -2793,7 +2665,7 @@
   <dimension ref="A1:C49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -3236,7 +3108,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{364FD145-442C-449D-8ADC-875BBC131831}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>

--- a/売上管理システム　データベース関連項目.xlsx
+++ b/売上管理システム　データベース関連項目.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\239002\Desktop\UG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A006910-5CCC-453E-A41E-342A2FC28FBF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ECF5854-B998-411D-8A3E-9D4B6D366180}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6380" xr2:uid="{2C264ECD-E77D-4382-B42E-E39482EDDCAD}"/>
   </bookViews>
@@ -2255,8 +2255,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC7A1F48-DE31-490C-B3F6-69CFB78C6BF1}">
   <dimension ref="B2:P20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="W4" sqref="W4"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AB4" sqref="AB4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -3106,10 +3106,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{364FD145-442C-449D-8ADC-875BBC131831}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -3182,94 +3182,6 @@
       </c>
       <c r="D5">
         <v>30000</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>8</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>8</v>
-      </c>
-      <c r="C7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>8</v>
-      </c>
-      <c r="C8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9">
-        <v>8</v>
-      </c>
-      <c r="C9">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10">
-        <v>9</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11">
-        <v>9</v>
-      </c>
-      <c r="C11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12">
-        <v>9</v>
-      </c>
-      <c r="C12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13">
-        <v>9</v>
-      </c>
-      <c r="C13">
-        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/売上管理システム　データベース関連項目.xlsx
+++ b/売上管理システム　データベース関連項目.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\239002\Desktop\UG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ECF5854-B998-411D-8A3E-9D4B6D366180}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30907E5A-151E-43EE-BB54-0485BDAAE580}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6380" xr2:uid="{2C264ECD-E77D-4382-B42E-E39482EDDCAD}"/>
   </bookViews>
@@ -533,13 +533,105 @@
             </a:rPr>
             <a:t>--------------------------</a:t>
           </a:r>
-          <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="sng" strike="noStrike">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-            <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>売上</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>ID(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>主</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100" b="0" i="0" u="sng">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>店舗</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="sng">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ID(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="ja-JP" sz="1100" b="0" i="0" u="sng">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>外</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="sng">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="en-US"/>
         </a:p>
         <a:p>
           <a:pPr marL="0" marR="0" indent="0" algn="l">
@@ -595,49 +687,6 @@
               <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
             </a:rPr>
             <a:t>mm/dd）</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" indent="0" algn="l"/>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-              <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>店舗</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-              <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>ID(</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-              <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>外</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-              <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>)</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -942,13 +991,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>-1</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
+      <xdr:colOff>299356</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
@@ -968,8 +1017,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13639800" y="409575"/>
-          <a:ext cx="1447800" cy="1724025"/>
+          <a:off x="13452928" y="407761"/>
+          <a:ext cx="1623785" cy="1699985"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1043,7 +1092,27 @@
               <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
               <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>ID</a:t>
+            <a:t>ID(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="sng" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>主</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="sng" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>)</a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" u="sng" strike="noStrike">
             <a:solidFill>
@@ -1831,13 +1900,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>22</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
+      <xdr:colOff>299356</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>119063</xdr:rowOff>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>566738</xdr:colOff>
+      <xdr:colOff>566737</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>219075</xdr:rowOff>
     </xdr:to>
@@ -1866,8 +1935,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="15087600" y="1271588"/>
-          <a:ext cx="1862138" cy="1471612"/>
+          <a:off x="15076713" y="1257754"/>
+          <a:ext cx="1591810" cy="1455964"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -2256,7 +2325,7 @@
   <dimension ref="B2:P20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AB4" sqref="AB4"/>
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>

--- a/売上管理システム　データベース関連項目.xlsx
+++ b/売上管理システム　データベース関連項目.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\239002\Desktop\UG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30907E5A-151E-43EE-BB54-0485BDAAE580}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E45D1B15-0A92-47CC-A333-8F6531D60DCB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6380" xr2:uid="{2C264ECD-E77D-4382-B42E-E39482EDDCAD}"/>
   </bookViews>
@@ -537,7 +537,7 @@
         <a:p>
           <a:pPr marL="0" indent="0" algn="l"/>
           <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="sng" strike="noStrike">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -547,7 +547,7 @@
             <a:t>売上</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="sng" strike="noStrike">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -557,7 +557,7 @@
             <a:t>ID(</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="sng" strike="noStrike">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -567,7 +567,7 @@
             <a:t>主</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="none" strike="noStrike">
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="sng" strike="noStrike">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -2325,7 +2325,7 @@
   <dimension ref="B2:P20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+      <selection activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>

--- a/売上管理システム　データベース関連項目.xlsx
+++ b/売上管理システム　データベース関連項目.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20411"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20412"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\239002\Desktop\UG\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\usertest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E45D1B15-0A92-47CC-A333-8F6531D60DCB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F89DD633-6820-4FEE-9470-EFB967320D99}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6380" xr2:uid="{2C264ECD-E77D-4382-B42E-E39482EDDCAD}"/>
   </bookViews>
@@ -459,16 +459,16 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>558800</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>34925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>358775</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -486,8 +486,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10334625" y="390525"/>
-          <a:ext cx="1857375" cy="1743075"/>
+          <a:off x="10067925" y="4257675"/>
+          <a:ext cx="1800225" cy="1682750"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -695,16 +695,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>219074</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>204541</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>105265</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>581025</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>199571</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>537916</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>85764</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -722,8 +722,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15687221" y="445860"/>
-          <a:ext cx="1657804" cy="1114425"/>
+          <a:off x="7674450" y="6801629"/>
+          <a:ext cx="1649557" cy="1596862"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -819,6 +819,49 @@
             </a:rPr>
             <a:t>)</a:t>
           </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" indent="0" algn="l"/>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="sng" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>店舗</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="sng" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>ID(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="sng" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>外</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" sz="1100" b="0" i="0" u="sng" strike="noStrike">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>)</a:t>
+          </a:r>
           <a:endParaRPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike">
             <a:solidFill>
               <a:srgbClr val="000000"/>
@@ -846,16 +889,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>209550</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>577850</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>82551</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>339725</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>103910</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -873,8 +916,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10677525" y="2733675"/>
-          <a:ext cx="1819275" cy="1676400"/>
+          <a:off x="10022032" y="6778915"/>
+          <a:ext cx="1736148" cy="1637722"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -990,16 +1033,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>-1</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>111124</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>53975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>299356</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>410481</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1017,8 +1060,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13452928" y="407761"/>
-          <a:ext cx="1623785" cy="1699985"/>
+          <a:off x="12953999" y="4276725"/>
+          <a:ext cx="1632857" cy="1663700"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1234,16 +1277,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>219075</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>644525</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>92075</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:colOff>44450</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1261,8 +1304,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15906750" y="2743200"/>
-          <a:ext cx="1438275" cy="1619250"/>
+          <a:off x="15487650" y="6537325"/>
+          <a:ext cx="1400175" cy="1568450"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1388,16 +1431,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>4763</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>129742</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>4763</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>209550</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>129742</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>82551</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1424,8 +1467,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="11263313" y="2133600"/>
-          <a:ext cx="0" cy="600075"/>
+          <a:off x="10890106" y="6165561"/>
+          <a:ext cx="0" cy="613354"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1454,15 +1497,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>209550</xdr:rowOff>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>454025</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1480,8 +1523,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13296900" y="2733675"/>
-          <a:ext cx="1733550" cy="1647825"/>
+          <a:off x="12947650" y="6527800"/>
+          <a:ext cx="1682750" cy="1597025"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1711,16 +1754,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>119063</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>339725</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>208685</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>666750</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>218642</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1746,9 +1789,9 @@
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="12172950" y="3557588"/>
-          <a:ext cx="1123950" cy="14287"/>
+        <a:xfrm>
+          <a:off x="11758180" y="7597776"/>
+          <a:ext cx="1081231" cy="9957"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1776,16 +1819,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>454025</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>119063</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>644525</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>214313</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1812,8 +1855,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1">
-          <a:off x="15030450" y="3552825"/>
-          <a:ext cx="876300" cy="4763"/>
+          <a:off x="14630400" y="7321550"/>
+          <a:ext cx="857250" cy="4763"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1841,16 +1884,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>209550</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>339725</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>82550</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>120650</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1870,8 +1913,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="12496800" y="1590675"/>
-          <a:ext cx="1152525" cy="1628775"/>
+          <a:off x="11849100" y="5416550"/>
+          <a:ext cx="1114425" cy="1577975"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector5">
           <a:avLst/>
@@ -1899,16 +1942,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>299356</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>410481</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>24</xdr:col>
-      <xdr:colOff>566737</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>219075</xdr:rowOff>
+      <xdr:colOff>11112</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>92075</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1935,8 +1978,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="15076713" y="1257754"/>
-          <a:ext cx="1591810" cy="1455964"/>
+          <a:off x="14586856" y="5108575"/>
+          <a:ext cx="1600881" cy="1428750"/>
         </a:xfrm>
         <a:prstGeom prst="line">
           <a:avLst/>
@@ -1944,6 +1987,59 @@
         <a:ln>
           <a:tailEnd type="triangle"/>
         </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>537916</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>208685</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>577850</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>210969</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="直線コネクタ 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E78DDB46-3882-4015-8828-E5C5009D1934}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="9" idx="3"/>
+          <a:endCxn id="10" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="9324007" y="7597776"/>
+          <a:ext cx="698025" cy="2284"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
@@ -2324,8 +2420,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC7A1F48-DE31-490C-B3F6-69CFB78C6BF1}">
   <dimension ref="B2:P20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O20" sqref="O20"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="Z21" sqref="Z21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
